--- a/biology/Médecine/J._Michael_Bishop/J._Michael_Bishop.xlsx
+++ b/biology/Médecine/J._Michael_Bishop/J._Michael_Bishop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Michael Bishop (né le 22 février 1936) est un immunologiste et microbiologiste américain qui, en 1989, a obtenu le Prix Nobel de physiologie ou médecine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bishop est né à York (Pennsylvanie). Il a suivi des études au Gettysburg College (en) à Gettysburg, puis a obtenu le grade de docteur en médecine à l'université Harvard en 1962.
 Il commença sa carrière en travaillant au National Institute of Allergy and Infectious Diseases, qui fait partie du National Institutes of Health. Ensuite, il travailla durant une année au Heinrich Pette Institute (en) à Hambourg en Allemagne avant de rejoindre les effectifs de la faculté de l'Université de la Californie à San Francisco. Depuis 1968, Bishop est resté dans cette faculté.
@@ -546,26 +560,99 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prix
-1982 : Prix Albert-Lasker pour la recherche médicale fondamentale[1]
-1984 : Prix Gairdner[2]
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1982 : Prix Albert-Lasker pour la recherche médicale fondamentale
+1984 : Prix Gairdner
 1984 : Prix Alfred P. Sloan, Jr. avec Harold E. Varmus
 1986 : Prix Dickson dans la catégorie médecine
-1989 : Prix Nobel de physiologie ou médecine, avec Harold E. Varmus[3]
+1989 : Prix Nobel de physiologie ou médecine, avec Harold E. Varmus
 1998 : Prix du Service public de l'ASCB (en)
-2003 : National Medal of Science[4]
-Sociétés savantes
-Membre de la Société américaine de microbiologie
+2003 : National Medal of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>J._Michael_Bishop</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J._Michael_Bishop</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sociétés savantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Membre de la Société américaine de microbiologie
 Membre de l'American Society for Virology (en)
 Membre de l'Alpha Omega Alpha (en)
-1980 : Membre de l'Académie nationale des sciences[5]
-1984 : Membre de l'Académie américaine des arts et des sciences[6]
-2002 : Membre de l'Academia Europaea[7]
-2008 : Membre étranger de la Royal Society[8]
-2017 : Membre de l'American Society for Cell Biology (en)[9]
-Titres honorifiques
-1991 : Docteur honoris causa de l'université de Miami[10]
-2004 : Docteur honoris causa de l'université Harvard[11]</t>
+1980 : Membre de l'Académie nationale des sciences
+1984 : Membre de l'Académie américaine des arts et des sciences
+2002 : Membre de l'Academia Europaea
+2008 : Membre étranger de la Royal Society
+2017 : Membre de l'American Society for Cell Biology (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>J._Michael_Bishop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J._Michael_Bishop</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Titres honorifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1991 : Docteur honoris causa de l'université de Miami
+2004 : Docteur honoris causa de l'université Harvard</t>
         </is>
       </c>
     </row>
